--- a/Sprint7V01.1x.xlsx
+++ b/Sprint7V01.1x.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -55,7 +55,7 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>New Billing Contract</x:t>
+    <x:t>Edit Billing Contract</x:t>
   </x:si>
   <x:si>
     <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
@@ -64,10 +64,10 @@
     <x:t>Step 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on the Billing Contract tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Billing Contract Page</x:t>
+    <x:t>Click on the Billing Contract tab,  and click on existing Billing Contract to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Billing Contract Details page</x:t>
   </x:si>
   <x:si>
     <x:t>Approved</x:t>
@@ -91,70 +91,7 @@
     <x:t>Click on Save button to save Billing Contract with fields</x:t>
   </x:si>
   <x:si>
-    <x:t>User should be able to validate that a New Billing Contract is created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Billing Contract</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Billing Contract tab,  and select a Billing Contract </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Billing Contract Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Billing Contract name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Billing Contract Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Billing Contract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Billing Contract tab,  and click on existing Billing Contract to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Billing Contract Details page</x:t>
-  </x:si>
-  <x:si>
     <x:t>User should be able to validate that the Billing Contract is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete Billing Contract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Billing Contract tab,  and select the existing  Billing Contract to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Billing Contract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Billing Contract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Billing Contract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Billing Contract is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -238,8 +175,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K12" totalsRowShown="0">
-  <x:autoFilter ref="A1:K12"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K4" totalsRowShown="0">
+  <x:autoFilter ref="A1:K4"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -545,7 +482,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K12"/>
+  <x:dimension ref="A1:K4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -553,12 +490,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="22.840625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="42.130625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="74.410625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="99.840624999999989" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="72.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="59.700625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -668,190 +605,6 @@
       <x:c r="J4" s="0" t="s"/>
       <x:c r="K4" s="0" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:11">
-      <x:c r="A5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s"/>
-      <x:c r="K5" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:11">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s"/>
-      <x:c r="J6" s="0" t="s"/>
-      <x:c r="K6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:11">
-      <x:c r="A7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s"/>
-      <x:c r="F7" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s"/>
-      <x:c r="K7" s="0" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:11">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s"/>
-      <x:c r="J8" s="0" t="s"/>
-      <x:c r="K8" s="0" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:11">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
-      <x:c r="F9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s"/>
-      <x:c r="J9" s="0" t="s"/>
-      <x:c r="K9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:11">
-      <x:c r="A10" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s"/>
-      <x:c r="F10" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="s"/>
-      <x:c r="K10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:11">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
-      <x:c r="F11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s"/>
-      <x:c r="J11" s="0" t="s"/>
-      <x:c r="K11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:11">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
-      <x:c r="F12" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s"/>
-      <x:c r="J12" s="0" t="s"/>
-      <x:c r="K12" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
